--- a/Tests/Test.xlsx
+++ b/Tests/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARYAN\Desktop\Moore Machine Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gathi\projects\MooreMachine\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7B617-55AE-4EC5-8912-5DF325D28047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA2836-9FE7-40DE-91CC-559F4869CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Time</t>
+    <t>time</t>
   </si>
   <si>
-    <t>Input</t>
+    <t>input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,20 +360,20 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.2000000000000002</v>
       </c>
@@ -372,7 +381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.3</v>
       </c>
@@ -380,7 +389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.4000000000000004</v>
       </c>
@@ -390,5 +399,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tests/Test.xlsx
+++ b/Tests/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gathi\projects\MooreMachine\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARYAN\Desktop\Moore Machine Simulator\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA2836-9FE7-40DE-91CC-559F4869CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025ADC8B-2572-4DC9-A21E-23B52B66AFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,29 +24,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,9 +55,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,48 +337,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0.1</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.1</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.3</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.1</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B5">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tests/Test.xlsx
+++ b/Tests/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARYAN\Desktop\Moore Machine Simulator\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gathi\projects\MooreMachine\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025ADC8B-2572-4DC9-A21E-23B52B66AFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE64E8E5-5AEF-4C00-AF97-5A3240D0D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t>f</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,51 +345,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0.1</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2.1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3.1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>

--- a/Tests/Test.xlsx
+++ b/Tests/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gathi\projects\MooreMachine\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARYAN\Desktop\Moore Machine Simulator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE64E8E5-5AEF-4C00-AF97-5A3240D0D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FF7646-1ADF-49B5-8B00-E2C9CCC3BDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="2256" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>f</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Input</t>
   </si>
 </sst>
 </file>
@@ -348,52 +351,52 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.1</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.1</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.0999999999999996</v>
       </c>
